--- a/res/primary_market.xlsx
+++ b/res/primary_market.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>Kwartał</t>
   </si>
@@ -602,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,3476 +666,3656 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
         <v>2727</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3243</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5004</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4937</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3986.27</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2918.644443033003</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6021</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3456</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3210</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3342.843092343046</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4769.933414634147</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2862</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3214.980636235108</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5873</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4750</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2754.275993195861</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
         <v>2727</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3947</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6199</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5284</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4062.31</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3492.617589207882</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>7929</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3314</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4237</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4800</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>4827.2275</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3401</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3679.123336473801</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>6095</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5759</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2869.297734362699</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>4181</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4501</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6437</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6466</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4518.37</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3381.71895560494</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8247</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3604</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4927</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5149</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7274.746093023256</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3420</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4749.124321233212</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>7509</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6308.702546679795</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2871.939482105998</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
         <v>4725</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5700</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8934</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5180.56</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3901.578310065053</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8129</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4143</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5453</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4776</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>7360.018660714285</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4080</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5049.969372337153</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>8000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6294</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4153.489905377382</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
         <v>4199</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4994</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8053</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8114</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6235.53</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4651.056568640905</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8420</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4645</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5201</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4900</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4784.143690815084</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>6837.761369863017</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4069</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5034.720763452044</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>8740</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>6444.287531988683</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4207.569891468539</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
         <v>4995</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4829</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7402</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7887</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6457.54</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4475.155575736593</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8355</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5047</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5062</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4900</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4937.434136692244</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7563.710226415094</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4357</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5731.136187831107</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>9561</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5495.136310196294</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3965.476806584014</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
         <v>5128</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4893</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7210</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7737</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6257.59</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4528.613808221899</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8084</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5011</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5048</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>4800</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4919.777756533484</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>7479.829108734404</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>4188</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5722.909843580409</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>9427</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5728.236508064076</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3965.331612889292</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
         <v>5651</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5035</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8509</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>7897</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6599</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5281.053897624991</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8034</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5174</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4962</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4800</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4930.917490277614</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>7338.029848484848</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>4215</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>5663.598866802976</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>9300</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>6299.305540365307</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>3985.643587736011</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
         <v>5115</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4959</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>8454</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7169</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6303.43</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5395.875405254305</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8012</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5170</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5480</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4924</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4943.045504990017</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7320.217572254336</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4433</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5520.665844204071</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>9235</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5704.481422347942</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4012.366508802887</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
         <v>4725</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4989</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6609</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6342</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6676.96</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5208.196857052586</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>7751</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>5266</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5329</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4761</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4967.615536839141</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>7277.032245222933</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4069</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5469.042523767099</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>9821</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>5027.138512437171</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3891.690288772736</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
         <v>5510</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4940</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6800</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>6290</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6482.04</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5110.593550148178</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7675</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5177</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5308</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4650</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4993.303921362312</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>7200.436766784456</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3966</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>5310.291624144453</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>9880</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>5014</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>3574.886630536106</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
         <v>4738</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4897</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6875</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6084</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6614.53</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5098.609912955743</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>7622</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5079</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4960</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4600</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5015.079979599868</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>7232.718582089557</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3787</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>5323.809747573039</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>9859</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>5093</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>3538.331693831756</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
         <v>4925</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4920</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6096</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6294</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5990</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5121.857739046904</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>7631</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5329</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5255</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4496</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5082.903566813306</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>7029.869491228069</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3742</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>5181.476071429401</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>9992.960622000001</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>5362</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3571</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
         <v>4830</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4939</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6179</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6134</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5909</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4978.293152911976</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7521</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5287</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5250</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4913</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5223.49173487172</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>6725.227116279071</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4021</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>4987.346628427429</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>9915.277206000001</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>5640</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3530</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
         <v>4791</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5080</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6077.708581007804</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6128</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6467</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4958.341276773841</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7595</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5113</v>
-      </c>
-      <c r="K16">
-        <v>5290</v>
       </c>
       <c r="L16">
         <v>5290</v>
       </c>
       <c r="M16">
+        <v>5290</v>
+      </c>
+      <c r="N16">
         <v>5275.839975249585</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>6685.470922330092</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>4159</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>5205.828189740803</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>9118.689939518896</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>6020</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3554</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
         <v>4640</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5026</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5730.007635911096</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5693</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>6360</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4947.12980596654</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>7559</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5257</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5366</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4840</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5355.092273649187</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>6586.992705128202</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4274</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5003.875722763592</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>8550.997477321702</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>6090</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3584</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
         <v>4790</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5036</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5456.091177532825</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6030</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6420</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4944.533970116415</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7526</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5002</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5367</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5100</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5429.243737698355</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>6599.816960526314</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>4305</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>4983.137943908022</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>8294.768956697</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>6231</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3628</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
         <v>4778</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4733</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5577</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6327</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6085</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4951.116726987033</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7564</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5003</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5215</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5135</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>5497.05212412214</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6527.888330975957</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>4254</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4959.416869468527</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>8133.25935402</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>6342</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>3673</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
         <v>4830</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4764</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5732</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6344</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6122</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4906.8256308107</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7517</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4993</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5265</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4858</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>4840</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>6376.381120797012</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>4077</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>4980</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>8211</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6129</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>3660</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
         <v>4823</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4849</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5630</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>6541</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>6141</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4953.594514892558</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>7209</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5053</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>5002</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4938</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4841</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>6328.437763157892</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4142</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>5049</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>8396.152132707304</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>6281</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3644</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
         <v>4828</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4841</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5804</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6344</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>5451</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4866.774709472299</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>7061</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>5121</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>5101</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4920</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>4839.483665690344</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>6286.103724066385</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>4283</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>5017</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>8025.110844464996</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>6388</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>3757</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
         <v>4825</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>4880</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5910</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6441.292637858976</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5412.73273422933</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4876.30641492078</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7039</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5031</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5038</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>4772.637</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4837.139128215603</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>6203.601386138608</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>4271</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>5000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>7826.248643957203</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>6370</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3764</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
         <v>4776</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>4846</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>6248</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>6879</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4740.797564881505</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4982.137275745238</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>7111.896885280928</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>5080</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5176</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>4775.016</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>4834.995969468337</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>6183.136512935878</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>4457</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>4951.04705554782</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>7879.183432723366</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>6406</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>3756</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
         <v>4731</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4851</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>6357.566713139826</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>6119.040244704159</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5351.420820497892</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5070.749807888555</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>7082.544249948684</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5134</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4948</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>4787.653</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4832.044687276179</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>6058.024276315788</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>4565</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>4973</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>8122.658551092201</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>6467</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>3734</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
         <v>5011</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4859</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>6475</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6278.626590609534</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5411.423280815723</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5219.014369344701</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>6893.044091390006</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5111</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4969</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>4840</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4828.528613980165</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>6160.990374531832</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>4507</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>4981.844886961425</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>7874.934938209658</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>6267</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3744</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
         <v>4951</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>4787</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>6513.995835347796</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>6186.072691572366</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5317.691756653438</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5109.780495281434</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6773.493746136923</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5043</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4646</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4570.101</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>4828.525864419258</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>6130.552004310342</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>4555</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>4985.891366862057</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>7695.07980873856</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>6069</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>3653</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
         <v>4965</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4934</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6452.584084365295</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>6063.427934532366</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>5526.309706020552</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5061.172992995966</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6361.697465776355</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5126</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4898</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>4597.9</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>4821</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>6382.252769918093</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4463</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4836.28848885839</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>8076.07662654198</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>6031</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>3634</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
         <v>4936</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5131</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6403</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6582.399348962638</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5816.815822182287</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>5075.341171675978</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6265.893815760362</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5014</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>4811</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4647.425</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>4808.917721008806</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>6334.477904993913</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>5141</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>4774.034190814135</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>8080.505448298822</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>5970</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>3613</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30">
         <v>4949</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5185</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>6397.896551761513</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>6824.496014448865</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5897.766455945944</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4883.549742674129</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>6071.463798360449</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5140</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4780</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4855.693</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4674.422428723456</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>6341.773666890525</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>5148</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>4827.823417071384</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>8145.839737846778</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>5997</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3613</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31">
         <v>4938</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>5279</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>6568</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>6313.644506806712</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5455.738289171891</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>4882.1198216393</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6122.340668805413</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>5017</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>4768</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4866.636</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>4426.262858565662</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>6417.455132145044</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>5102</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>4895.961521441307</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>8088.267195567189</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>5928</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3674</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
         <v>4856</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>5040</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>6090.446853361197</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>6943.8099366317</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5530.761726260291</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4851.655444899021</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>6472.426780025669</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5009</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>4808</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>4861.926</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>4457.94734960278</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>6669.88670162059</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>5123</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>4876.507283094805</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>8005.404656752187</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>6016</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>3693</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33">
         <v>4840</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>4951</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>6232</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>6341.230548809175</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5601.897444391108</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>4878.21465439637</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6433.618868815462</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>4924</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>4936</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>4937.435</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>4563.908050555304</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>6560.276163141997</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>5027</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>4835.684711273312</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>7924.025627651702</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>6092</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>3784</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
         <v>4885</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>5100</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6074</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>6328.332146962931</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5397.031062732024</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4767.404433055322</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6214.309634313189</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>4922</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>4932</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>4929.2</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>4730.88914688036</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>6551.987410953663</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>5040</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>4867.159417242087</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>7819.356024545944</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>6050</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>3769</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
         <v>4909</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>5149</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>6289.228882846356</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>6004.743865823802</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>5544.663593868694</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>4750.275216236003</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>6491.090375463125</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5005</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>4861</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>4941.912</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>4771.918808233974</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>6546.295553607939</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>5034</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>4873.605835375288</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>7691.358070935864</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>6075</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3784</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
         <v>4881</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>5200</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>6492.288428129669</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>6201.398812597928</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5630.474967506079</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4856.137925069047</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>6564.528925327671</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5008</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>4863</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>4971.117</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>4802.074578</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>6599.738677137865</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>5245</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>4956.232455220188</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>7839.312622637652</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>5964</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>3808</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37">
         <v>4838</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>5092</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>6671.324659290638</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>6356.791627774055</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>5632.311244125632</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4844.072869403896</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>6720</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>4966</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>4906</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>4799.208</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>4800.994464</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>6526.581786120597</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>5082</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>4824.145637481668</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>7872.092153953637</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>6077</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>3813</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38">
         <v>4790</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>5121</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>6416.41448193605</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6583.925766598997</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>5509.348811080794</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4782.548943596908</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>6658</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>5108</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>4881</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>4746.8</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>4781.357829</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>6482.168236906205</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>5038</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>4859.808384927852</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>7807.028088820864</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>6135</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>3835</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39">
         <v>4886</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>5088</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>6487.950390548651</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>6264.550361225706</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>5511.275501759139</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>4878.024031197594</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>6524.534146084892</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>5172</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>4831</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>4848.315</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>4599.088373</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>6511.799892584909</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>5126</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>4828.881403988356</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>7788.873947038797</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>6245</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>3870</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40">
         <v>4850</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>5148</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>6635.995493790266</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>6505.886577253404</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>5423.910365745465</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4837.772802805143</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>6524</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>5050</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>4773</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>4806.437</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>4577.015404</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>6424.695459585635</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>4986</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>4897.6136925661</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>7877.688999722974</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>6190</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>3873</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
         <v>4832</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>5153</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>6581.282975833361</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>6963.510238131336</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>5372.200361696805</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4832.588410858278</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>6670.440828959773</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>5095</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>4894</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>4787.561</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>4640.6065</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>6457.748962395563</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>5013</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>4890.283779292149</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>7648.558</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>6201</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>3880</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42">
         <v>4684</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>5246</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>6535.657037473796</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>6948.962430566322</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>5365.416332671766</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>4685.500338304093</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>6525.678266524273</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>5244</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4900</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>5173.66</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>4488.19714</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>6452.691720109951</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>4952</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>4876.011809851104</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>7771.718118045363</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>6335</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>3880</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
         <v>4707</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>5250</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>6549.534791347212</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>6841.708523860792</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>5293.116206629939</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>4679.415994554653</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>6711</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>5202</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>5110</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>5559.423</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>4500.682187</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>6402.755869565211</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>4842</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>4880.918050723648</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>7638.064611380712</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>6443</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>3891</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
         <v>4844</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>5289</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>6461.539186905519</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>6869.847208720336</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>5361.973541556486</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>4676.573055574328</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>6618.933651146061</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>5123</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>4943</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>5565.576</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>4690.696831</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>6429.217447338649</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>4811</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>5030.560205312262</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>7706.529321812523</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>6460</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>3890</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45">
         <v>4874</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>5397</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>6775.257953888942</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>6785.406900761093</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>5383.332366454565</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4757.15721790408</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>6746.158351015139</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>5210</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>5180</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>5481.031</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>4741.426987</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>6434.689785318571</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>5054</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>5693.645639159668</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>7739.707327057996</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>6461</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>3912</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46">
         <v>5096</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>6028</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>7329.195790482667</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>7258.821022816966</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>5438.574466238199</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>4779.658392494102</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>6931.476461244793</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>5134</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5147</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>5449.56</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>4760.665871341059</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>6479.397334674384</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>4990</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>5749.57528810957</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>7788.43238116164</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>6390</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>3922</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47">
         <v>5066</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>6041</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>7370.844582689377</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>7954.689088514747</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>5479.364502342552</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4761.515021315165</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>6923.771729952507</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>5209</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>5332</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>5600</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>4758.122396896414</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>6550.619344713657</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>4992</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>5572.614553934713</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>8019.756101550764</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>6526.141895687012</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>3937</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48">
         <v>5095</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>6196</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>8053.928994000547</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>7855.476059480719</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>5376.905254021726</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>4868.926655462192</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>6918.257455352491</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>5284</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>5524</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>5708.96</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>5020.804608110528</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>6676.285945945926</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>4952</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>5659.251373573603</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>8201.149282184693</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>6745</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>3931</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49">
         <v>5236</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>6123</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>8421.690001801358</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>7911.930384676428</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>5779.7011458959</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>4868.76</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6902.119273518455</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>5364</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>5475</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>5811.48</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>5070.307178120793</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>6866.28678166241</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>5257</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>5755.898951038089</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>8610.518284355505</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>7020</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>3951</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50">
         <v>5401</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>6227</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>8293.091903961813</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>7640.721381840102</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>5844.903171986158</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>4851.587780907355</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>7040.135609426442</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>5676</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>5529</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>5793.91</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>5199.438628881026</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>6930.668099224187</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>5233</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>5934.235655827718</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>8887.606896110692</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>7145</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>4102</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51">
         <v>5569</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>6427</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>8603.402564395901</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>9341.839716713706</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>6273.925445597948</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5111.892136182762</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>7355.588969653671</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>5860</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>5663</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>5946.414</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>5263.646437047119</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>7032.572678105206</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>5210</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>6054.061566457305</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>9019.622870956551</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>7230</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>4306</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52">
         <v>5640</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>6309</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>8267.423061312596</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>9205.569125666141</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>6417.642315551744</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5101.383342106981</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>7622.580978288294</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>5866</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>5796</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>6086.489</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>5322.137814157049</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>7350.505610874532</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>5549</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>6243.076106710518</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>9426.992836606769</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>7457</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>4512</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53">
         <v>5753</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>6340</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>9032.708277431371</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>9071.09922300072</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>6547.655949219298</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>5132.389886295344</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>7956.78519490387</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>5844</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>6010</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>6081.169</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>5645.645321159868</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>7233.161127385707</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>5792</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>6303.699068049179</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>9590.522282274089</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>7636</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>4670</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54">
         <v>5916.260790900237</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>6415</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>9474.023816734387</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>9185.675255715087</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>6717.02948585346</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>5283.552874006767</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>8017.228687574799</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>5933</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>6027</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>6190.511</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>5698.433360678702</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>7390.794467051363</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>5799</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>6605.422696678454</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>9934.552237174323</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>7909</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>4727</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55">
         <v>5961.062567148038</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>6512</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>9806.052980202419</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>9175.175126285827</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>7002.425987614285</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5476.066609611451</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>8531.638307463085</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>5911.0284</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>6274</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>6350.199</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>6086.321475955184</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>7394.000539906076</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>5880</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>6573.995459626765</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>10280.10156319334</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>7976</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>4819</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56">
         <v>6219.540372008448</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>6592</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>9904.150708054496</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>9242.623329132481</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>7313.422116154558</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>5494.184511634816</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>9212.450326711425</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>5964.77</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>6608</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>6379.651</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>6097.751435107439</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>7541.348065514994</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>5909</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>6642.130471570124</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>10610.40761220647</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>8482.754244890544</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>5110.749482085929</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57">
         <v>6166.395080085407</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>7093</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>9803.056556136376</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>9437.845402246072</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>7340.754422809646</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>6156.135738226977</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>9757.800055124757</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>6223.73</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>6509.85384484064</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>6410.525</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>6075.952384720526</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>7764.168529758895</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>5987.19</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>7068.540911584978</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>10717.44158366856</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>8652.029745422709</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>5250.652575992711</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58">
         <v>6229.196511354569</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>7125</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>9641.237604501159</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>9570.707311738386</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>7661.946572899448</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>6145.144567435305</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>9462.948701862468</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>6650.8</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>6733.59010241401</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>6432.455</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>5907.715504544007</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>7922.333692332944</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>6047.65</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>7768.845167870789</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>10735.27907900768</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>8670.419890845045</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>5388.156128605666</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59">
         <v>6238.454931998984</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>7227.19962371757</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>9688.992055200537</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>9756.590258840244</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>7953.776320675834</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>6234.6913819961</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>9616.84879825691</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>6898.45</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>6760.70222418099</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>6415.739</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>5817.199145837049</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>7979.343986779963</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>6274.26</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>8078.637736742517</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>10750.49594101206</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>8630.373378870359</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>5480.562576985433</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
         <v>6509.418692435176</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>7271.721420454965</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>10068.03489330417</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>10327.49250112852</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>8050.995341621772</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>6232.085560960979</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>9756.022686881894</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>7082.1</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>6854.06145036981</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>6589.56</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>5873.16853111269</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>7988.023802816922</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>6362.14</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>8281.626649293965</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>10969.46677296768</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>9061.962481766914</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>5635.256648479672</v>
       </c>
     </row>
